--- a/BWL装备分配原则.xlsx
+++ b/BWL装备分配原则.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koyoshiro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koyoshiro/Code/GitHub/wow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5587C9EC-D359-9A4F-A7EB-211A33E18F63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B504C6-3515-3C49-A1FB-20E587EA4269}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="424">
   <si>
     <t>名称（品质）</t>
   </si>
@@ -1399,10 +1399,6 @@
   </si>
   <si>
     <t>防战、熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士、惩戒骑、猎人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6076,7 +6072,7 @@
         <v>107</v>
       </c>
       <c r="I146" s="43" t="s">
-        <v>424</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="25.25" customHeight="1" thickBot="1">

--- a/BWL装备分配原则.xlsx
+++ b/BWL装备分配原则.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koyoshiro/Code/GitHub/wow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xwangv/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B504C6-3515-3C49-A1FB-20E587EA4269}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="4580" windowWidth="22740" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$157</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="439">
   <si>
     <t>名称（品质）</t>
   </si>
@@ -373,10 +378,6 @@
   </si>
   <si>
     <t>治疗职业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴战</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1358,10 +1359,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>物理职业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>皮甲职业</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1382,10 +1379,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>盗贼、熊、猫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>法系DPS（优先3件）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1398,15 +1391,165 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>防战、熊</t>
+    <t>防战、熊、近战dps</t>
+    <rPh sb="5" eb="6">
+      <t>jin zhan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴战</t>
+    <rPh sb="0" eb="1">
+      <t>kuang bao zhan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾散件</t>
+    <rPh sb="0" eb="1">
+      <t>la ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗职业</t>
+    <rPh sb="0" eb="1">
+      <t>zhi liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi ye</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般散件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴战、剑贼（优先3件）</t>
+    <rPh sb="0" eb="1">
+      <t>kuang bao zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian zei</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴战（优先3件）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴战、剑贼（优先3件）</t>
+    <rPh sb="0" eb="1">
+      <t>kuang bao zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zei</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人、盗贼</t>
+    <rPh sb="0" eb="1">
+      <t>lie ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao zei</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴战</t>
+    <rPh sb="0" eb="1">
+      <t>kuang bao z</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼</t>
+    <rPh sb="0" eb="1">
+      <t>dao zei</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼、熊、猫、狂暴战</t>
+    <rPh sb="5" eb="6">
+      <t>mao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>k b z</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>非人类T、狂暴战</t>
+    <rPh sb="0" eb="1">
+      <t>fei ren lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuang bao zan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手狂暴战、猎人</t>
+    <rPh sb="0" eb="1">
+      <t>shuang shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuang bao zhan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie ren</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <rPh sb="0" eb="1">
+      <t>lie ren</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品散件</t>
+    <rPh sb="0" eb="1">
+      <t>ji pin</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系DPS(优先3件）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理职业、T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾散件</t>
+    <rPh sb="0" eb="1">
+      <t>la ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>san jian</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2481,15 +2624,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
@@ -2501,9 +2644,9 @@
     <col min="8" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2530,33 +2673,33 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
@@ -2574,17 +2717,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="2" t="s">
@@ -2597,17 +2740,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
@@ -2617,13 +2760,13 @@
         <v>102</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
@@ -2643,33 +2786,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>91</v>
@@ -2678,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>91</v>
@@ -2693,10 +2836,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>90</v>
@@ -2705,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>90</v>
@@ -2720,10 +2863,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>87</v>
@@ -2732,13 +2875,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>85</v>
@@ -2747,10 +2890,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
       <c r="B11" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>92</v>
@@ -2759,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>92</v>
@@ -2774,10 +2917,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>93</v>
@@ -2786,7 +2929,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>93</v>
@@ -2799,10 +2942,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>88</v>
@@ -2811,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>88</v>
@@ -2826,10 +2969,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>89</v>
@@ -2838,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>89</v>
@@ -2851,10 +2994,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>86</v>
@@ -2863,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>86</v>
@@ -2878,19 +3021,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="50" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="50"/>
@@ -2898,13 +3041,13 @@
         <v>102</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="53" t="s">
@@ -2924,17 +3067,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="57" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="58" t="s">
@@ -2947,10 +3090,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
       <c r="B19" s="67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="47" t="s">
@@ -2970,17 +3113,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="2" t="s">
@@ -2993,17 +3136,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="83"/>
       <c r="B21" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="14" t="s">
@@ -3016,10 +3159,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>91</v>
@@ -3028,13 +3171,13 @@
         <v>12</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>85</v>
@@ -3043,10 +3186,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
       <c r="B23" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>90</v>
@@ -3055,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>90</v>
@@ -3070,10 +3213,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
       <c r="B24" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>87</v>
@@ -3082,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>87</v>
@@ -3097,10 +3240,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
       <c r="B25" s="68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>92</v>
@@ -3109,13 +3252,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>85</v>
@@ -3124,10 +3267,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
       <c r="B26" s="68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>93</v>
@@ -3136,7 +3279,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>93</v>
@@ -3151,10 +3294,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
       <c r="B27" s="68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>88</v>
@@ -3163,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>88</v>
@@ -3178,10 +3321,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84"/>
       <c r="B28" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>89</v>
@@ -3190,13 +3333,13 @@
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>85</v>
@@ -3205,10 +3348,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83"/>
       <c r="B29" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>86</v>
@@ -3217,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>86</v>
@@ -3232,12 +3375,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="71" t="s">
@@ -3249,10 +3392,10 @@
       <c r="H30" s="70"/>
       <c r="I30" s="72"/>
     </row>
-    <row r="31" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89"/>
       <c r="B31" s="64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -3272,17 +3415,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="58" t="s">
@@ -3292,13 +3435,13 @@
         <v>102</v>
       </c>
       <c r="I32" s="66" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89"/>
       <c r="B33" s="67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="47" t="s">
@@ -3318,10 +3461,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91"/>
       <c r="B34" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="60" t="s">
@@ -3332,49 +3475,49 @@
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="62" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="91"/>
       <c r="B35" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="56"/>
       <c r="D35" s="57" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="66" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
       <c r="B36" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="14" t="s">
@@ -3387,10 +3530,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="89"/>
       <c r="B37" s="67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>91</v>
@@ -3399,13 +3542,13 @@
         <v>12</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
@@ -3414,10 +3557,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="91"/>
       <c r="B38" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>90</v>
@@ -3426,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>90</v>
@@ -3441,10 +3584,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="91"/>
       <c r="B39" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>87</v>
@@ -3453,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>87</v>
@@ -3468,10 +3611,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91"/>
       <c r="B40" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>92</v>
@@ -3480,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>92</v>
@@ -3495,10 +3638,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="91"/>
       <c r="B41" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>93</v>
@@ -3507,7 +3650,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>93</v>
@@ -3520,10 +3663,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="91"/>
       <c r="B42" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>88</v>
@@ -3532,7 +3675,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>88</v>
@@ -3547,10 +3690,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="B43" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>89</v>
@@ -3559,13 +3702,13 @@
         <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>84</v>
@@ -3574,10 +3717,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>86</v>
@@ -3586,7 +3729,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>86</v>
@@ -3601,12 +3744,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
@@ -3617,7 +3760,7 @@
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>85</v>
@@ -3626,21 +3769,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
       <c r="B46" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>102</v>
@@ -3649,17 +3792,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
       <c r="B47" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="2" t="s">
@@ -3672,107 +3815,107 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
       <c r="B48" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
       <c r="B49" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="1"/>
       <c r="H49" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="86"/>
       <c r="B50" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="86"/>
       <c r="B51" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
       <c r="B52" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="1"/>
@@ -3783,10 +3926,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="86"/>
       <c r="B53" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="1" t="s">
@@ -3795,19 +3938,19 @@
       <c r="E53" s="1"/>
       <c r="F53" s="10"/>
       <c r="G53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="86"/>
       <c r="B54" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="1" t="s">
@@ -3816,49 +3959,49 @@
       <c r="E54" s="1"/>
       <c r="F54" s="10"/>
       <c r="G54" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="86"/>
       <c r="B55" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="86"/>
       <c r="B56" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="2" t="s">
@@ -3868,20 +4011,20 @@
         <v>102</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="86"/>
       <c r="B57" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="2" t="s">
@@ -3891,13 +4034,13 @@
         <v>102</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="86"/>
       <c r="B58" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>91</v>
@@ -3906,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>91</v>
@@ -3921,10 +4064,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="86"/>
       <c r="B59" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>90</v>
@@ -3933,13 +4076,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>85</v>
@@ -3948,10 +4091,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="86"/>
       <c r="B60" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>87</v>
@@ -3960,13 +4103,13 @@
         <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>85</v>
@@ -3975,10 +4118,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="61" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="86"/>
       <c r="B61" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>92</v>
@@ -3987,13 +4130,13 @@
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>84</v>
@@ -4002,10 +4145,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="62" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="86"/>
       <c r="B62" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>93</v>
@@ -4014,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>93</v>
@@ -4029,10 +4172,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="63" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="86"/>
       <c r="B63" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>88</v>
@@ -4041,13 +4184,13 @@
         <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>84</v>
@@ -4056,10 +4199,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="86"/>
       <c r="B64" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>89</v>
@@ -4068,13 +4211,13 @@
         <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>84</v>
@@ -4083,10 +4226,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="65" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="87"/>
       <c r="B65" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>86</v>
@@ -4095,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>86</v>
@@ -4110,19 +4253,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="66" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
@@ -4130,20 +4273,20 @@
         <v>102</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="86"/>
       <c r="B67" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="2" t="s">
@@ -4153,20 +4296,20 @@
         <v>102</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="86"/>
       <c r="B68" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="2" t="s">
@@ -4179,10 +4322,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="69" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="86"/>
       <c r="B69" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="1" t="s">
@@ -4202,63 +4345,63 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="70" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="86"/>
       <c r="B70" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="71" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="86"/>
       <c r="B71" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="86"/>
       <c r="B72" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="1"/>
@@ -4269,10 +4412,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="73" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="86"/>
       <c r="B73" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="1" t="s">
@@ -4281,19 +4424,19 @@
       <c r="E73" s="1"/>
       <c r="F73" s="10"/>
       <c r="G73" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="86"/>
       <c r="B74" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="1" t="s">
@@ -4302,49 +4445,49 @@
       <c r="E74" s="1"/>
       <c r="F74" s="10"/>
       <c r="G74" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="75" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="86"/>
       <c r="B75" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="86"/>
       <c r="B76" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="2" t="s">
@@ -4354,13 +4497,13 @@
         <v>102</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="86"/>
       <c r="B77" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C77" s="75"/>
       <c r="D77" s="76" t="s">
@@ -4369,19 +4512,19 @@
       <c r="E77" s="76"/>
       <c r="F77" s="75"/>
       <c r="G77" s="77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H77" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="78" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="86"/>
       <c r="B78" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>91</v>
@@ -4390,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>91</v>
@@ -4405,10 +4548,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="79" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="86"/>
       <c r="B79" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>90</v>
@@ -4417,13 +4560,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>85</v>
@@ -4432,10 +4575,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="86"/>
       <c r="B80" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>87</v>
@@ -4444,13 +4587,13 @@
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>85</v>
@@ -4459,10 +4602,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="81" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="86"/>
       <c r="B81" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>92</v>
@@ -4471,13 +4614,13 @@
         <v>4</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>85</v>
@@ -4486,10 +4629,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="82" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="86"/>
       <c r="B82" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>93</v>
@@ -4498,7 +4641,7 @@
         <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>93</v>
@@ -4513,10 +4656,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="83" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="86"/>
       <c r="B83" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>88</v>
@@ -4525,13 +4668,13 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>85</v>
@@ -4540,10 +4683,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="84" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="86"/>
       <c r="B84" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>89</v>
@@ -4552,13 +4695,13 @@
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>85</v>
@@ -4567,10 +4710,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="85" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="87"/>
       <c r="B85" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>86</v>
@@ -4579,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>86</v>
@@ -4594,19 +4737,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="86" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="85" t="s">
         <v>67</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
@@ -4614,20 +4757,20 @@
         <v>102</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="86"/>
       <c r="B87" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="2" t="s">
@@ -4640,65 +4783,65 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="88" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="86"/>
       <c r="B88" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="89" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="86"/>
       <c r="B89" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="1"/>
       <c r="H89" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="90" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="86"/>
       <c r="B90" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>102</v>
@@ -4707,10 +4850,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="91" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="86"/>
       <c r="B91" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="1" t="s">
@@ -4719,40 +4862,40 @@
       <c r="E91" s="1"/>
       <c r="F91" s="10"/>
       <c r="G91" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="86"/>
       <c r="B92" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="1"/>
       <c r="H92" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="86"/>
       <c r="B93" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="1" t="s">
@@ -4761,19 +4904,19 @@
       <c r="E93" s="1"/>
       <c r="F93" s="10"/>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="86"/>
       <c r="B94" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="1" t="s">
@@ -4782,30 +4925,30 @@
       <c r="E94" s="1"/>
       <c r="F94" s="10"/>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="95" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="86"/>
       <c r="B95" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>102</v>
@@ -4814,17 +4957,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="96" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="86"/>
       <c r="B96" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="2" t="s">
@@ -4834,20 +4977,20 @@
         <v>102</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="86"/>
       <c r="B97" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="2" t="s">
@@ -4857,13 +5000,13 @@
         <v>102</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="86"/>
       <c r="B98" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>91</v>
@@ -4872,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>91</v>
@@ -4887,10 +5030,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="99" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="86"/>
       <c r="B99" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>90</v>
@@ -4899,13 +5042,13 @@
         <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>85</v>
@@ -4914,10 +5057,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="100" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="86"/>
       <c r="B100" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>87</v>
@@ -4926,13 +5069,13 @@
         <v>4</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>85</v>
@@ -4941,10 +5084,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="101" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="86"/>
       <c r="B101" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>92</v>
@@ -4953,13 +5096,13 @@
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>84</v>
@@ -4968,10 +5111,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="102" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="86"/>
       <c r="B102" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>93</v>
@@ -4980,7 +5123,7 @@
         <v>18</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>93</v>
@@ -4995,10 +5138,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="103" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="86"/>
       <c r="B103" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>88</v>
@@ -5007,13 +5150,13 @@
         <v>19</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>84</v>
@@ -5022,10 +5165,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="104" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="86"/>
       <c r="B104" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>89</v>
@@ -5034,13 +5177,13 @@
         <v>19</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H104" s="10" t="s">
         <v>84</v>
@@ -5049,10 +5192,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="105" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="87"/>
       <c r="B105" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>86</v>
@@ -5061,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>86</v>
@@ -5076,19 +5219,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="106" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="85" t="s">
         <v>75</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="22" t="s">
@@ -5101,176 +5244,176 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="107" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="86"/>
       <c r="B107" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I107" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="86"/>
       <c r="B108" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86"/>
       <c r="B109" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
       <c r="H109" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I109" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="86"/>
       <c r="B110" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="24" t="s">
         <v>68</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="25" t="s">
         <v>69</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I110" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="111" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="86"/>
       <c r="B111" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I111" s="43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="86"/>
       <c r="B112" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I112" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="86"/>
       <c r="B113" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="24" t="s">
         <v>54</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I113" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86"/>
       <c r="B114" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -5278,66 +5421,66 @@
         <v>102</v>
       </c>
       <c r="I114" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="86"/>
       <c r="B115" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="25" t="s">
         <v>71</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I115" s="43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="116" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="86"/>
       <c r="B116" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="25" t="s">
         <v>72</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="I116" s="43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="117" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="86"/>
       <c r="B117" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="25" t="s">
@@ -5347,36 +5490,36 @@
         <v>102</v>
       </c>
       <c r="I117" s="43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="87"/>
       <c r="B118" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C118" s="26"/>
       <c r="D118" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>102</v>
       </c>
       <c r="I118" s="44" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="92"/>
       <c r="B119" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>91</v>
@@ -5385,13 +5528,13 @@
         <v>12</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>85</v>
@@ -5400,10 +5543,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="120" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="86"/>
       <c r="B120" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>90</v>
@@ -5412,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>90</v>
@@ -5427,10 +5570,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="121" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="86"/>
       <c r="B121" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>87</v>
@@ -5439,13 +5582,13 @@
         <v>4</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>85</v>
@@ -5454,10 +5597,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="122" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="86"/>
       <c r="B122" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>92</v>
@@ -5466,13 +5609,13 @@
         <v>4</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>85</v>
@@ -5481,10 +5624,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="123" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="86"/>
       <c r="B123" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>93</v>
@@ -5493,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>93</v>
@@ -5508,10 +5651,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="124" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="86"/>
       <c r="B124" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>88</v>
@@ -5520,13 +5663,13 @@
         <v>19</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>84</v>
@@ -5535,10 +5678,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="125" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="86"/>
       <c r="B125" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>89</v>
@@ -5547,13 +5690,13 @@
         <v>19</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>84</v>
@@ -5562,10 +5705,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="126" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="87"/>
       <c r="B126" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>86</v>
@@ -5574,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>86</v>
@@ -5589,12 +5732,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="127" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="85" t="s">
         <v>83</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="17" t="s">
@@ -5604,16 +5747,16 @@
       <c r="F127" s="16"/>
       <c r="G127" s="17"/>
       <c r="H127" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="86"/>
       <c r="B128" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>91</v>
@@ -5622,13 +5765,13 @@
         <v>12</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>84</v>
@@ -5637,10 +5780,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="129" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="86"/>
       <c r="B129" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>86</v>
@@ -5649,13 +5792,13 @@
         <v>12</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>84</v>
@@ -5664,10 +5807,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="130" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="86"/>
       <c r="B130" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>89</v>
@@ -5676,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>89</v>
@@ -5691,10 +5834,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="131" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="86"/>
       <c r="B131" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>88</v>
@@ -5703,13 +5846,13 @@
         <v>19</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>84</v>
@@ -5718,10 +5861,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="132" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="86"/>
       <c r="B132" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>93</v>
@@ -5730,7 +5873,7 @@
         <v>18</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>93</v>
@@ -5745,10 +5888,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="133" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="86"/>
       <c r="B133" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>92</v>
@@ -5757,13 +5900,13 @@
         <v>4</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H133" s="10" t="s">
         <v>84</v>
@@ -5772,19 +5915,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="134" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="86"/>
       <c r="B134" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>90</v>
@@ -5799,10 +5942,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="135" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="86"/>
       <c r="B135" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>87</v>
@@ -5811,13 +5954,13 @@
         <v>4</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H135" s="10" t="s">
         <v>84</v>
@@ -5826,56 +5969,56 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="86"/>
       <c r="B136" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="137" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="86"/>
       <c r="B137" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I137" s="43" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="86"/>
       <c r="B138" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="1" t="s">
@@ -5884,139 +6027,139 @@
       <c r="E138" s="1"/>
       <c r="F138" s="10"/>
       <c r="G138" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I138" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="86"/>
       <c r="B139" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I139" s="43" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="86"/>
       <c r="B140" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I140" s="43" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="86"/>
       <c r="B141" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="142" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="86"/>
       <c r="B142" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="1"/>
       <c r="H142" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I142" s="43" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="86"/>
       <c r="B143" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I143" s="43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="144" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="86"/>
       <c r="B144" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="2" t="s">
@@ -6026,59 +6169,59 @@
         <v>102</v>
       </c>
       <c r="I144" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="86"/>
       <c r="B145" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I145" s="43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="86"/>
       <c r="B146" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I146" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="86"/>
       <c r="B147" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="1" t="s">
@@ -6092,13 +6235,13 @@
         <v>24</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I147" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="87"/>
       <c r="B148" s="13" t="s">
         <v>82</v>
@@ -6113,155 +6256,155 @@
       <c r="H148" s="13"/>
       <c r="I148" s="45"/>
     </row>
-    <row r="149" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="149" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E149" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F149" s="29"/>
       <c r="G149" s="29"/>
       <c r="H149" s="16" t="s">
-        <v>102</v>
+        <v>435</v>
       </c>
       <c r="I149" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="86"/>
       <c r="B150" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C150" s="31"/>
       <c r="D150" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>102</v>
+        <v>438</v>
       </c>
       <c r="I150" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="86"/>
       <c r="B151" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C151" s="31"/>
       <c r="D151" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F151" s="31"/>
       <c r="G151" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I151" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="86"/>
       <c r="B152" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C152" s="31"/>
       <c r="D152" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F152" s="31"/>
       <c r="G152" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I152" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="153" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="86"/>
       <c r="B153" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C153" s="31"/>
       <c r="D153" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E153" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="E153" s="32" t="s">
-        <v>388</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I153" s="43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+    <row r="154" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="86"/>
       <c r="B154" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C154" s="31"/>
       <c r="D154" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E154" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="E154" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>102</v>
       </c>
       <c r="I154" s="43" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="86"/>
       <c r="B155" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C155" s="31"/>
       <c r="D155" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E155" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="E155" s="32" t="s">
-        <v>396</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31"/>
@@ -6269,57 +6412,57 @@
         <v>102</v>
       </c>
       <c r="I155" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="86"/>
       <c r="B156" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C156" s="31"/>
       <c r="D156" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I156" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="25.25" customHeight="1" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="87"/>
       <c r="B157" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C157" s="36"/>
       <c r="D157" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E157" s="37" t="s">
         <v>401</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>402</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="I157" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I157" xr:uid="{4FD56C4E-BD16-42E3-B6BB-37CF85EF87BC}"/>
+  <autoFilter ref="A1:I157"/>
   <mergeCells count="9">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
